--- a/medicine/Mort/Ancien_cimetière_des_Pavillons-sous-Bois/Ancien_cimetière_des_Pavillons-sous-Bois.xlsx
+++ b/medicine/Mort/Ancien_cimetière_des_Pavillons-sous-Bois/Ancien_cimetière_des_Pavillons-sous-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_des_Pavillons-sous-Bois</t>
+          <t>Ancien_cimetière_des_Pavillons-sous-Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien cimetière des Pavillons-sous-Bois, est un des deux cimetières de la commune des Pavillons-sous-Bois en Seine-Saint-Denis[1]. Il est situé allée Louis XIV[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière des Pavillons-sous-Bois, est un des deux cimetières de la commune des Pavillons-sous-Bois en Seine-Saint-Denis. Il est situé allée Louis XIV.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_des_Pavillons-sous-Bois</t>
+          <t>Ancien_cimetière_des_Pavillons-sous-Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ville a été créée en 1905 et ne possédait pas encore de cimetière à cette époque. Les inhumations se faisaient alors au cimetière communal de Bondy[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville a été créée en 1905 et ne possédait pas encore de cimetière à cette époque. Les inhumations se faisaient alors au cimetière communal de Bondy.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_des_Pavillons-sous-Bois</t>
+          <t>Ancien_cimetière_des_Pavillons-sous-Bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière est inscrit dans un rectangle délimité par l'allée de Bougainville, l'avenue Louis XIV, l'avenue Just-Adolphe-Leclerc. À l'ouest, lui est accolé le square des Anciens-Combattants-d'Afrique-du-Nord, le long de la rue Romain-Rolland.
-Le carré militaire commémore les victimes de la Seconde Guerre Mondiale[4].
+Le carré militaire commémore les victimes de la Seconde Guerre Mondiale.
 			Carré militaire.
-Dans le cimetière se trouve un monument aux morts sous lequel une crypte recueille les restes de soldats morts au combat[5], et rend hommage aux deux cent quatre-vingt-quatorze Pavillonnais morts pour la France.
-Il fut tout d'abord installé avenue Aristide-Briand, près du dispensaire, où eut lieu son inauguration le dimanche 2 novembre 1919. Il fut par la suite déplacé dans le cimetière[6].
+Dans le cimetière se trouve un monument aux morts sous lequel une crypte recueille les restes de soldats morts au combat, et rend hommage aux deux cent quatre-vingt-quatorze Pavillonnais morts pour la France.
+Il fut tout d'abord installé avenue Aristide-Briand, près du dispensaire, où eut lieu son inauguration le dimanche 2 novembre 1919. Il fut par la suite déplacé dans le cimetière.
 			Monument aux morts.
 			Accès à la crypte.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_des_Pavillons-sous-Bois</t>
+          <t>Ancien_cimetière_des_Pavillons-sous-Bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
